--- a/backend/M651101.xlsx
+++ b/backend/M651101.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CEC701-6919-4EFD-AF76-D8DB527DA992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="M651101" state="visible" r:id="rId4"/>
+    <sheet name="M651101" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="370">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Theme: Industry</t>
-  </si>
-  <si>
-    <t>Subject: Transport</t>
-  </si>
-  <si>
-    <t>Topic: Sea Transport</t>
-  </si>
-  <si>
-    <t>Table Title: Sea Cargo And Shipping Statistics, Monthly</t>
-  </si>
-  <si>
-    <t>Data last updated: 15/09/2023</t>
-  </si>
-  <si>
-    <t>Source: MARITIME AND PORT AUTHORITY OF SINGAPORE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>Data Series</t>
   </si>
@@ -1079,68 +1062,27 @@
   </si>
   <si>
     <t>Footnotes:</t>
-  </si>
-  <si>
-    <t>Total Container Throughput (Thousand Twenty-Foot Equivalent Units):</t>
-  </si>
-  <si>
-    <t>TEU refers to Twenty-Foot Equivalent Unit.</t>
-  </si>
-  <si>
-    <t>Notation:</t>
-  </si>
-  <si>
-    <t>na   not available or not applicable</t>
-  </si>
-  <si>
-    <t>nec  not elsewhere classified</t>
-  </si>
-  <si>
-    <t>nes  not elsewhere specified</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -     nil or negligible or not significant</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Numbers may not add up to the totals due to rounding.</t>
-  </si>
-  <si>
-    <t>Data are the latest available at the time of access or download. Some statistics, particularly those for the most recent time periods, are provisional and may be subject to revision at a later date.</t>
-  </si>
-  <si>
-    <t>Values are shown in Singapore dollars (unless otherwise specified).</t>
-  </si>
-  <si>
-    <t>Generated by: SingStat Table Builder</t>
-  </si>
-  <si>
-    <t>Date generated: 29/09/2023</t>
-  </si>
-  <si>
-    <t>Contact: info@singstat.gov.sg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,0.##########"/>
-    <numFmt numFmtId="165" formatCode="#,0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1160,10 +1102,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1180,7 +1130,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1524,79 +1474,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D373"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A10:D361"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="A376" sqref="A358:J376"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5">
         <v>10070</v>
@@ -1610,7 +1519,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5">
         <v>10196</v>
@@ -1624,7 +1533,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5">
         <v>9845</v>
@@ -1638,13 +1547,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5">
         <v>10324</v>
       </c>
       <c r="C15" s="6">
-        <v>48185.6</v>
+        <v>48185.599999999999</v>
       </c>
       <c r="D15" s="6">
         <v>3409.7</v>
@@ -1652,7 +1561,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5">
         <v>9987</v>
@@ -1666,7 +1575,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5">
         <v>10270</v>
@@ -1680,7 +1589,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="5">
         <v>9202</v>
@@ -1694,7 +1603,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5">
         <v>10035</v>
@@ -1708,7 +1617,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5">
         <v>10081</v>
@@ -1722,7 +1631,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5">
         <v>9442</v>
@@ -1736,7 +1645,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5">
         <v>9451</v>
@@ -1750,7 +1659,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B23" s="5">
         <v>8976</v>
@@ -1764,7 +1673,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B24" s="5">
         <v>9129</v>
@@ -1778,7 +1687,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B25" s="5">
         <v>9044</v>
@@ -1792,7 +1701,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B26" s="5">
         <v>8301</v>
@@ -1806,7 +1715,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B27" s="5">
         <v>7815</v>
@@ -1820,7 +1729,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B28" s="5">
         <v>7608</v>
@@ -1834,7 +1743,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B29" s="5">
         <v>7307</v>
@@ -1848,7 +1757,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5">
         <v>6440</v>
@@ -1862,7 +1771,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B31" s="5">
         <v>7213</v>
@@ -1876,7 +1785,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5">
         <v>7286</v>
@@ -1890,7 +1799,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B33" s="5">
         <v>7130</v>
@@ -1904,7 +1813,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B34" s="5">
         <v>7098</v>
@@ -1918,7 +1827,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35" s="5">
         <v>6918</v>
@@ -1932,7 +1841,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B36" s="5">
         <v>7178</v>
@@ -1946,7 +1855,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B37" s="5">
         <v>7246</v>
@@ -1960,13 +1869,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B38" s="5">
         <v>7247</v>
       </c>
       <c r="C38" s="6">
-        <v>48768.8</v>
+        <v>48768.800000000003</v>
       </c>
       <c r="D38" s="6">
         <v>3114.5</v>
@@ -1974,7 +1883,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B39" s="5">
         <v>7211</v>
@@ -1988,7 +1897,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B40" s="5">
         <v>7500</v>
@@ -2002,7 +1911,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B41" s="5">
         <v>7788</v>
@@ -2016,7 +1925,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5">
         <v>6990</v>
@@ -2030,7 +1939,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B43" s="5">
         <v>7641</v>
@@ -2044,7 +1953,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44" s="5">
         <v>7479</v>
@@ -2058,7 +1967,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B45" s="5">
         <v>7347</v>
@@ -2072,7 +1981,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46" s="5">
         <v>7502</v>
@@ -2086,7 +1995,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B47" s="5">
         <v>7255</v>
@@ -2100,7 +2009,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B48" s="5">
         <v>6958</v>
@@ -2114,7 +2023,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B49" s="5">
         <v>7178</v>
@@ -2128,7 +2037,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B50" s="5">
         <v>6701</v>
@@ -2142,7 +2051,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B51" s="5">
         <v>6582</v>
@@ -2156,7 +2065,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B52" s="5">
         <v>7015</v>
@@ -2170,7 +2079,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B53" s="5">
         <v>9827</v>
@@ -2184,7 +2093,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B54" s="5">
         <v>10879</v>
@@ -2198,7 +2107,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B55" s="5">
         <v>12134</v>
@@ -2212,7 +2121,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B56" s="5">
         <v>12148</v>
@@ -2226,7 +2135,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B57" s="5">
         <v>11743</v>
@@ -2240,7 +2149,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B58" s="5">
         <v>12026</v>
@@ -2254,7 +2163,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B59" s="5">
         <v>11547</v>
@@ -2268,13 +2177,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B60" s="5">
         <v>11739</v>
       </c>
       <c r="C60" s="6">
-        <v>51066.4</v>
+        <v>51066.400000000001</v>
       </c>
       <c r="D60" s="6">
         <v>3133.7</v>
@@ -2282,7 +2191,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B61" s="5">
         <v>11554</v>
@@ -2296,7 +2205,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B62" s="5">
         <v>11138</v>
@@ -2310,7 +2219,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B63" s="5">
         <v>11697</v>
@@ -2324,7 +2233,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B64" s="5">
         <v>11243</v>
@@ -2338,7 +2247,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B65" s="5">
         <v>11509</v>
@@ -2352,7 +2261,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B66" s="5">
         <v>10275</v>
@@ -2366,7 +2275,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B67" s="5">
         <v>11678</v>
@@ -2380,7 +2289,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B68" s="5">
         <v>11723</v>
@@ -2394,7 +2303,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B69" s="5">
         <v>11187</v>
@@ -2408,7 +2317,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B70" s="5">
         <v>11629</v>
@@ -2422,7 +2331,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B71" s="5">
         <v>11367</v>
@@ -2436,7 +2345,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B72" s="5">
         <v>11389</v>
@@ -2450,13 +2359,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B73" s="5">
         <v>11605</v>
       </c>
       <c r="C73" s="6">
-        <v>52268.8</v>
+        <v>52268.800000000003</v>
       </c>
       <c r="D73" s="6">
         <v>3133.5</v>
@@ -2464,7 +2373,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B74" s="5">
         <v>11192</v>
@@ -2478,7 +2387,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B75" s="5">
         <v>12225</v>
@@ -2492,7 +2401,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B76" s="5">
         <v>12133</v>
@@ -2506,7 +2415,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B77" s="5">
         <v>12546</v>
@@ -2520,7 +2429,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B78" s="5">
         <v>11130</v>
@@ -2534,7 +2443,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B79" s="5">
         <v>12642</v>
@@ -2548,7 +2457,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B80" s="5">
         <v>12806</v>
@@ -2562,7 +2471,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B81" s="5">
         <v>12347</v>
@@ -2576,7 +2485,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B82" s="5">
         <v>12549</v>
@@ -2590,7 +2499,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B83" s="5">
         <v>11619</v>
@@ -2604,7 +2513,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B84" s="5">
         <v>11916</v>
@@ -2618,7 +2527,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B85" s="5">
         <v>11811</v>
@@ -2632,7 +2541,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B86" s="5">
         <v>12275</v>
@@ -2646,7 +2555,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B87" s="5">
         <v>12655</v>
@@ -2660,7 +2569,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B88" s="5">
         <v>12260</v>
@@ -2674,7 +2583,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B89" s="5">
         <v>12318</v>
@@ -2688,7 +2597,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B90" s="5">
         <v>10666</v>
@@ -2697,18 +2606,18 @@
         <v>48370.1</v>
       </c>
       <c r="D90" s="6">
-        <v>2297.2</v>
+        <v>2297.1999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B91" s="5">
         <v>11925</v>
       </c>
       <c r="C91" s="6">
-        <v>51044.8</v>
+        <v>51044.800000000003</v>
       </c>
       <c r="D91" s="6">
         <v>2623.3</v>
@@ -2716,7 +2625,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B92" s="5">
         <v>12131</v>
@@ -2730,7 +2639,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B93" s="5">
         <v>11713</v>
@@ -2744,7 +2653,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B94" s="5">
         <v>11928</v>
@@ -2758,7 +2667,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B95" s="5">
         <v>11437</v>
@@ -2772,7 +2681,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B96" s="5">
         <v>11708</v>
@@ -2786,7 +2695,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B97" s="5">
         <v>11322</v>
@@ -2795,12 +2704,12 @@
         <v>48110.3</v>
       </c>
       <c r="D97" s="6">
-        <v>2571.3</v>
+        <v>2571.3000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B98" s="5">
         <v>11454</v>
@@ -2809,12 +2718,12 @@
         <v>49019.3</v>
       </c>
       <c r="D98" s="6">
-        <v>2597.7</v>
+        <v>2597.6999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B99" s="5">
         <v>11708</v>
@@ -2828,7 +2737,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B100" s="5">
         <v>11530</v>
@@ -2842,7 +2751,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B101" s="5">
         <v>11789</v>
@@ -2856,7 +2765,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B102" s="5">
         <v>10621</v>
@@ -2865,12 +2774,12 @@
         <v>46718.7</v>
       </c>
       <c r="D102" s="6">
-        <v>2383.8</v>
+        <v>2383.8000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B103" s="5">
         <v>11657</v>
@@ -2884,7 +2793,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B104" s="5">
         <v>11428</v>
@@ -2893,12 +2802,12 @@
         <v>46276.5</v>
       </c>
       <c r="D104" s="6">
-        <v>2515.2</v>
+        <v>2515.1999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B105" s="5">
         <v>11046</v>
@@ -2912,7 +2821,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B106" s="5">
         <v>11144</v>
@@ -2926,7 +2835,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B107" s="5">
         <v>11045</v>
@@ -2935,12 +2844,12 @@
         <v>46474.3</v>
       </c>
       <c r="D107" s="6">
-        <v>2427.7</v>
+        <v>2427.6999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B108" s="5">
         <v>11536</v>
@@ -2954,7 +2863,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B109" s="5">
         <v>11295</v>
@@ -2968,7 +2877,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B110" s="5">
         <v>10960</v>
@@ -2977,12 +2886,12 @@
         <v>48248.3</v>
       </c>
       <c r="D110" s="6">
-        <v>2616.8</v>
+        <v>2616.8000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B111" s="5">
         <v>11021</v>
@@ -2996,7 +2905,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B112" s="5">
         <v>10762</v>
@@ -3010,7 +2919,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B113" s="5">
         <v>11126</v>
@@ -3024,7 +2933,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B114" s="5">
         <v>10240</v>
@@ -3038,7 +2947,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B115" s="5">
         <v>11319</v>
@@ -3052,13 +2961,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B116" s="5">
         <v>11188</v>
       </c>
       <c r="C116" s="6">
-        <v>50477.6</v>
+        <v>50477.599999999999</v>
       </c>
       <c r="D116" s="6">
         <v>2909.1</v>
@@ -3066,7 +2975,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B117" s="5">
         <v>10766</v>
@@ -3080,7 +2989,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B118" s="5">
         <v>11281</v>
@@ -3094,7 +3003,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B119" s="5">
         <v>10818</v>
@@ -3108,7 +3017,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B120" s="5">
         <v>11091</v>
@@ -3122,7 +3031,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B121" s="5">
         <v>11172</v>
@@ -3136,7 +3045,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B122" s="5">
         <v>11227</v>
@@ -3150,7 +3059,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B123" s="5">
         <v>11589</v>
@@ -3164,7 +3073,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B124" s="5">
         <v>11432</v>
@@ -3178,13 +3087,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B125" s="5">
         <v>11886</v>
       </c>
       <c r="C125" s="6">
-        <v>51450.4</v>
+        <v>51450.400000000001</v>
       </c>
       <c r="D125" s="6">
         <v>2835.3</v>
@@ -3192,7 +3101,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B126" s="5">
         <v>10679</v>
@@ -3201,12 +3110,12 @@
         <v>42919.1</v>
       </c>
       <c r="D126" s="6">
-        <v>2413.2</v>
+        <v>2413.1999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B127" s="5">
         <v>11754</v>
@@ -3220,7 +3129,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B128" s="5">
         <v>11912</v>
@@ -3234,7 +3143,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B129" s="5">
         <v>11667</v>
@@ -3248,7 +3157,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B130" s="5">
         <v>11975</v>
@@ -3262,7 +3171,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B131" s="5">
         <v>11716</v>
@@ -3276,7 +3185,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B132" s="5">
         <v>11921</v>
@@ -3290,7 +3199,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B133" s="5">
         <v>11992</v>
@@ -3304,7 +3213,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B134" s="5">
         <v>11565</v>
@@ -3318,7 +3227,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B135" s="5">
         <v>11803</v>
@@ -3332,7 +3241,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B136" s="5">
         <v>11360</v>
@@ -3346,7 +3255,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B137" s="5">
         <v>11579</v>
@@ -3360,7 +3269,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B138" s="5">
         <v>10363</v>
@@ -3374,7 +3283,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B139" s="5">
         <v>11564</v>
@@ -3388,7 +3297,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B140" s="5">
         <v>11275</v>
@@ -3402,7 +3311,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B141" s="5">
         <v>10906</v>
@@ -3416,7 +3325,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B142" s="5">
         <v>10959</v>
@@ -3430,7 +3339,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B143" s="5">
         <v>10768</v>
@@ -3444,7 +3353,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B144" s="5">
         <v>10825</v>
@@ -3458,7 +3367,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B145" s="5">
         <v>11099</v>
@@ -3472,7 +3381,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B146" s="5">
         <v>10790</v>
@@ -3486,7 +3395,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B147" s="5">
         <v>11218</v>
@@ -3500,13 +3409,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B148" s="5">
         <v>10669</v>
       </c>
       <c r="C148" s="6">
-        <v>44219.2</v>
+        <v>44219.199999999997</v>
       </c>
       <c r="D148" s="5">
         <v>2600</v>
@@ -3514,7 +3423,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B149" s="5">
         <v>11050</v>
@@ -3528,7 +3437,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B150" s="5">
         <v>10120</v>
@@ -3542,7 +3451,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B151" s="5">
         <v>10743</v>
@@ -3551,12 +3460,12 @@
         <v>44855.7</v>
       </c>
       <c r="D151" s="6">
-        <v>2542.8</v>
+        <v>2542.8000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B152" s="5">
         <v>11035</v>
@@ -3570,7 +3479,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B153" s="5">
         <v>10519</v>
@@ -3584,21 +3493,21 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B154" s="5">
         <v>11069</v>
       </c>
       <c r="C154" s="6">
-        <v>44155.2</v>
+        <v>44155.199999999997</v>
       </c>
       <c r="D154" s="6">
-        <v>2568.7</v>
+        <v>2568.6999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B155" s="5">
         <v>10432</v>
@@ -3607,12 +3516,12 @@
         <v>42308.6</v>
       </c>
       <c r="D155" s="6">
-        <v>2410.2</v>
+        <v>2410.1999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B156" s="5">
         <v>10827</v>
@@ -3626,13 +3535,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B157" s="5">
         <v>11148</v>
       </c>
       <c r="C157" s="6">
-        <v>45338.4</v>
+        <v>45338.400000000001</v>
       </c>
       <c r="D157" s="6">
         <v>2639.5</v>
@@ -3640,7 +3549,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B158" s="5">
         <v>10468</v>
@@ -3649,12 +3558,12 @@
         <v>45665.1</v>
       </c>
       <c r="D158" s="6">
-        <v>2482.3</v>
+        <v>2482.3000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B159" s="5">
         <v>10680</v>
@@ -3663,12 +3572,12 @@
         <v>44975.1</v>
       </c>
       <c r="D159" s="6">
-        <v>2571.8</v>
+        <v>2571.8000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B160" s="5">
         <v>10401</v>
@@ -3682,7 +3591,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B161" s="5">
         <v>10994</v>
@@ -3691,18 +3600,18 @@
         <v>44948.9</v>
       </c>
       <c r="D161" s="6">
-        <v>2504.2</v>
+        <v>2504.1999999999998</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B162" s="5">
         <v>9488</v>
       </c>
       <c r="C162" s="6">
-        <v>39113.8</v>
+        <v>39113.800000000003</v>
       </c>
       <c r="D162" s="6">
         <v>2146.9</v>
@@ -3710,13 +3619,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B163" s="5">
         <v>10937</v>
       </c>
       <c r="C163" s="6">
-        <v>43240.8</v>
+        <v>43240.800000000003</v>
       </c>
       <c r="D163" s="6">
         <v>2416.1</v>
@@ -3724,7 +3633,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B164" s="5">
         <v>11004</v>
@@ -3738,7 +3647,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B165" s="5">
         <v>10307</v>
@@ -3752,7 +3661,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B166" s="5">
         <v>10546</v>
@@ -3766,7 +3675,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B167" s="5">
         <v>10200</v>
@@ -3775,12 +3684,12 @@
         <v>39048</v>
       </c>
       <c r="D167" s="6">
-        <v>2233.8</v>
+        <v>2233.8000000000002</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B168" s="5">
         <v>10645</v>
@@ -3794,7 +3703,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B169" s="5">
         <v>10891</v>
@@ -3803,12 +3712,12 @@
         <v>43035.3</v>
       </c>
       <c r="D169" s="6">
-        <v>2520.8</v>
+        <v>2520.8000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B170" s="5">
         <v>10598</v>
@@ -3822,13 +3731,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B171" s="5">
         <v>10706</v>
       </c>
       <c r="C171" s="6">
-        <v>41188.4</v>
+        <v>41188.400000000001</v>
       </c>
       <c r="D171" s="6">
         <v>2422.5</v>
@@ -3836,7 +3745,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B172" s="5">
         <v>10431</v>
@@ -3845,12 +3754,12 @@
         <v>43045.2</v>
       </c>
       <c r="D172" s="6">
-        <v>2320.8</v>
+        <v>2320.8000000000002</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B173" s="5">
         <v>10997</v>
@@ -3864,7 +3773,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B174" s="5">
         <v>9981</v>
@@ -3873,12 +3782,12 @@
         <v>37963.4</v>
       </c>
       <c r="D174" s="6">
-        <v>2183.2</v>
+        <v>2183.1999999999998</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B175" s="5">
         <v>10993</v>
@@ -3887,26 +3796,26 @@
         <v>42395.7</v>
       </c>
       <c r="D175" s="6">
-        <v>2332.3</v>
+        <v>2332.3000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B176" s="5">
         <v>10993</v>
       </c>
       <c r="C176" s="6">
-        <v>41129.8</v>
+        <v>41129.800000000003</v>
       </c>
       <c r="D176" s="6">
-        <v>2283.8</v>
+        <v>2283.8000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B177" s="5">
         <v>10502</v>
@@ -3920,21 +3829,21 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B178" s="5">
         <v>11163</v>
       </c>
       <c r="C178" s="6">
-        <v>41378.4</v>
+        <v>41378.400000000001</v>
       </c>
       <c r="D178" s="6">
-        <v>2314.3</v>
+        <v>2314.3000000000002</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B179" s="5">
         <v>10799</v>
@@ -3948,7 +3857,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B180" s="5">
         <v>11261</v>
@@ -3962,7 +3871,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B181" s="5">
         <v>11438</v>
@@ -3976,13 +3885,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B182" s="5">
         <v>11029</v>
       </c>
       <c r="C182" s="6">
-        <v>38027.3</v>
+        <v>38027.300000000003</v>
       </c>
       <c r="D182" s="5">
         <v>2097</v>
@@ -3990,21 +3899,21 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B183" s="5">
         <v>11187</v>
       </c>
       <c r="C183" s="6">
-        <v>39974.8</v>
+        <v>39974.800000000003</v>
       </c>
       <c r="D183" s="6">
-        <v>2098.8</v>
+        <v>2098.8000000000002</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B184" s="5">
         <v>10698</v>
@@ -4018,7 +3927,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B185" s="5">
         <v>11056</v>
@@ -4027,18 +3936,18 @@
         <v>39279.1</v>
       </c>
       <c r="D185" s="6">
-        <v>2193.3</v>
+        <v>2193.3000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B186" s="5">
         <v>9889</v>
       </c>
       <c r="C186" s="6">
-        <v>35249.6</v>
+        <v>35249.599999999999</v>
       </c>
       <c r="D186" s="6">
         <v>1850.5</v>
@@ -4046,13 +3955,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B187" s="5">
         <v>10560</v>
       </c>
       <c r="C187" s="6">
-        <v>38767.2</v>
+        <v>38767.199999999997</v>
       </c>
       <c r="D187" s="6">
         <v>1974.4</v>
@@ -4060,21 +3969,21 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B188" s="5">
         <v>11037</v>
       </c>
       <c r="C188" s="6">
-        <v>35513.7</v>
+        <v>35513.699999999997</v>
       </c>
       <c r="D188" s="6">
-        <v>2156.3</v>
+        <v>2156.3000000000002</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B189" s="5">
         <v>10741</v>
@@ -4088,13 +3997,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B190" s="5">
         <v>10897</v>
       </c>
       <c r="C190" s="6">
-        <v>40886.3</v>
+        <v>40886.300000000003</v>
       </c>
       <c r="D190" s="5">
         <v>2522</v>
@@ -4102,7 +4011,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B191" s="5">
         <v>10760</v>
@@ -4111,18 +4020,18 @@
         <v>41932.6</v>
       </c>
       <c r="D191" s="6">
-        <v>2555.7</v>
+        <v>2555.6999999999998</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B192" s="5">
         <v>11201</v>
       </c>
       <c r="C192" s="6">
-        <v>42388.8</v>
+        <v>42388.800000000003</v>
       </c>
       <c r="D192" s="6">
         <v>2641.5</v>
@@ -4130,7 +4039,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B193" s="5">
         <v>11378</v>
@@ -4144,7 +4053,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B194" s="5">
         <v>10879</v>
@@ -4158,7 +4067,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B195" s="5">
         <v>11429</v>
@@ -4172,13 +4081,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B196" s="5">
         <v>11149</v>
       </c>
       <c r="C196" s="6">
-        <v>46604.8</v>
+        <v>46604.800000000003</v>
       </c>
       <c r="D196" s="6">
         <v>2534.1</v>
@@ -4186,7 +4095,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B197" s="5">
         <v>11123</v>
@@ -4200,13 +4109,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B198" s="5">
         <v>10043</v>
       </c>
       <c r="C198" s="6">
-        <v>40388.7</v>
+        <v>40388.699999999997</v>
       </c>
       <c r="D198" s="6">
         <v>2308.4</v>
@@ -4214,7 +4123,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B199" s="5">
         <v>11058</v>
@@ -4228,7 +4137,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B200" s="5">
         <v>11009</v>
@@ -4237,46 +4146,46 @@
         <v>43069.8</v>
       </c>
       <c r="D200" s="6">
-        <v>2482.2</v>
+        <v>2482.1999999999998</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B201" s="5">
         <v>10783</v>
       </c>
       <c r="C201" s="6">
-        <v>39871.3</v>
+        <v>39871.300000000003</v>
       </c>
       <c r="D201" s="6">
-        <v>2323.3</v>
+        <v>2323.3000000000002</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B202" s="5">
         <v>11083</v>
       </c>
       <c r="C202" s="6">
-        <v>41916.4</v>
+        <v>41916.400000000001</v>
       </c>
       <c r="D202" s="6">
-        <v>2402.8</v>
+        <v>2402.8000000000002</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B203" s="5">
         <v>10986</v>
       </c>
       <c r="C203" s="6">
-        <v>40191.3</v>
+        <v>40191.300000000003</v>
       </c>
       <c r="D203" s="6">
         <v>2356.1</v>
@@ -4284,21 +4193,21 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B204" s="5">
         <v>11146</v>
       </c>
       <c r="C204" s="6">
-        <v>40231.7</v>
+        <v>40231.699999999997</v>
       </c>
       <c r="D204" s="6">
-        <v>2456.7</v>
+        <v>2456.6999999999998</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B205" s="5">
         <v>11070</v>
@@ -4312,7 +4221,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B206" s="5">
         <v>10585</v>
@@ -4326,13 +4235,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B207" s="5">
         <v>10631</v>
       </c>
       <c r="C207" s="6">
-        <v>39753.2</v>
+        <v>39753.199999999997</v>
       </c>
       <c r="D207" s="6">
         <v>2349.1</v>
@@ -4340,7 +4249,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B208" s="5">
         <v>10252</v>
@@ -4354,7 +4263,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B209" s="5">
         <v>10501</v>
@@ -4368,27 +4277,27 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B210" s="5">
         <v>9604</v>
       </c>
       <c r="C210" s="6">
-        <v>35288.4</v>
+        <v>35288.400000000001</v>
       </c>
       <c r="D210" s="6">
-        <v>2117.7</v>
+        <v>2117.6999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B211" s="5">
         <v>10918</v>
       </c>
       <c r="C211" s="6">
-        <v>38394.8</v>
+        <v>38394.800000000003</v>
       </c>
       <c r="D211" s="6">
         <v>2170.5</v>
@@ -4396,13 +4305,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B212" s="5">
         <v>10854</v>
       </c>
       <c r="C212" s="6">
-        <v>38665.7</v>
+        <v>38665.699999999997</v>
       </c>
       <c r="D212" s="6">
         <v>2188.4</v>
@@ -4410,27 +4319,27 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B213" s="5">
         <v>10661</v>
       </c>
       <c r="C213" s="6">
-        <v>37111.3</v>
+        <v>37111.300000000003</v>
       </c>
       <c r="D213" s="6">
-        <v>2097.2</v>
+        <v>2097.1999999999998</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B214" s="5">
         <v>10743</v>
       </c>
       <c r="C214" s="6">
-        <v>37211.7</v>
+        <v>37211.699999999997</v>
       </c>
       <c r="D214" s="6">
         <v>2175.4</v>
@@ -4438,27 +4347,27 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B215" s="5">
         <v>10955</v>
       </c>
       <c r="C215" s="6">
-        <v>38242.8</v>
+        <v>38242.800000000003</v>
       </c>
       <c r="D215" s="6">
-        <v>2130.3</v>
+        <v>2130.3000000000002</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B216" s="5">
         <v>10952</v>
       </c>
       <c r="C216" s="6">
-        <v>39758.2</v>
+        <v>39758.199999999997</v>
       </c>
       <c r="D216" s="5">
         <v>2270</v>
@@ -4466,7 +4375,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B217" s="5">
         <v>10858</v>
@@ -4480,13 +4389,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B218" s="5">
         <v>10857</v>
       </c>
       <c r="C218" s="6">
-        <v>37824.8</v>
+        <v>37824.800000000003</v>
       </c>
       <c r="D218" s="6">
         <v>2016.9</v>
@@ -4494,7 +4403,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B219" s="5">
         <v>10952</v>
@@ -4503,12 +4412,12 @@
         <v>38856.9</v>
       </c>
       <c r="D219" s="6">
-        <v>2066.8</v>
+        <v>2066.8000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B220" s="5">
         <v>10563</v>
@@ -4522,13 +4431,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B221" s="5">
         <v>11200</v>
       </c>
       <c r="C221" s="6">
-        <v>37937.2</v>
+        <v>37937.199999999997</v>
       </c>
       <c r="D221" s="5">
         <v>2053</v>
@@ -4536,7 +4445,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B222" s="5">
         <v>9791</v>
@@ -4550,13 +4459,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B223" s="5">
         <v>10536</v>
       </c>
       <c r="C223" s="6">
-        <v>35061.8</v>
+        <v>35061.800000000003</v>
       </c>
       <c r="D223" s="6">
         <v>1948.3</v>
@@ -4564,13 +4473,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B224" s="5">
         <v>10749</v>
       </c>
       <c r="C224" s="6">
-        <v>36669.2</v>
+        <v>36669.199999999997</v>
       </c>
       <c r="D224" s="6">
         <v>1980.3</v>
@@ -4578,7 +4487,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B225" s="5">
         <v>10263</v>
@@ -4592,7 +4501,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B226" s="5">
         <v>10922</v>
@@ -4606,7 +4515,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B227" s="5">
         <v>10498</v>
@@ -4620,13 +4529,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B228" s="5">
         <v>10878</v>
       </c>
       <c r="C228" s="6">
-        <v>35956.8</v>
+        <v>35956.800000000003</v>
       </c>
       <c r="D228" s="6">
         <v>2039.8</v>
@@ -4634,7 +4543,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B229" s="5">
         <v>10826</v>
@@ -4648,13 +4557,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B230" s="5">
         <v>10764</v>
       </c>
       <c r="C230" s="6">
-        <v>36613.7</v>
+        <v>36613.699999999997</v>
       </c>
       <c r="D230" s="6">
         <v>1992.4</v>
@@ -4662,7 +4571,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B231" s="5">
         <v>11260</v>
@@ -4676,13 +4585,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B232" s="5">
         <v>11044</v>
       </c>
       <c r="C232" s="6">
-        <v>34202.7</v>
+        <v>34202.699999999997</v>
       </c>
       <c r="D232" s="6">
         <v>1890.3</v>
@@ -4690,13 +4599,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B233" s="5">
         <v>11345</v>
       </c>
       <c r="C233" s="6">
-        <v>37092.2</v>
+        <v>37092.199999999997</v>
       </c>
       <c r="D233" s="6">
         <v>1984.8</v>
@@ -4704,7 +4613,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B234" s="5">
         <v>10025</v>
@@ -4718,7 +4627,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B235" s="5">
         <v>11744</v>
@@ -4732,7 +4641,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B236" s="5">
         <v>11710</v>
@@ -4746,7 +4655,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B237" s="5">
         <v>11018</v>
@@ -4760,7 +4669,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B238" s="5">
         <v>10950</v>
@@ -4774,7 +4683,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B239" s="5">
         <v>10933</v>
@@ -4788,13 +4697,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B240" s="5">
         <v>11028</v>
       </c>
       <c r="C240" s="6">
-        <v>33888.7</v>
+        <v>33888.699999999997</v>
       </c>
       <c r="D240" s="5">
         <v>1878</v>
@@ -4802,7 +4711,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B241" s="5">
         <v>11287</v>
@@ -4816,7 +4725,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B242" s="5">
         <v>10764</v>
@@ -4830,7 +4739,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B243" s="5">
         <v>10975</v>
@@ -4844,7 +4753,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B244" s="5">
         <v>10466</v>
@@ -4858,7 +4767,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B245" s="5">
         <v>11882</v>
@@ -4872,13 +4781,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B246" s="5">
         <v>10724</v>
       </c>
       <c r="C246" s="6">
-        <v>27040.8</v>
+        <v>27040.799999999999</v>
       </c>
       <c r="D246" s="6">
         <v>1482.2</v>
@@ -4886,13 +4795,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B247" s="5">
         <v>11448</v>
       </c>
       <c r="C247" s="6">
-        <v>30385.6</v>
+        <v>30385.599999999999</v>
       </c>
       <c r="D247" s="6">
         <v>1612.9</v>
@@ -4900,7 +4809,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B248" s="5">
         <v>11733</v>
@@ -4914,7 +4823,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B249" s="5">
         <v>11342</v>
@@ -4928,7 +4837,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B250" s="5">
         <v>11502</v>
@@ -4942,7 +4851,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B251" s="5">
         <v>11098</v>
@@ -4956,13 +4865,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B252" s="5">
         <v>11284</v>
       </c>
       <c r="C252" s="6">
-        <v>28743.2</v>
+        <v>28743.200000000001</v>
       </c>
       <c r="D252" s="6">
         <v>1622.6</v>
@@ -4970,7 +4879,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B253" s="5">
         <v>11317</v>
@@ -4984,7 +4893,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B254" s="5">
         <v>10755</v>
@@ -4998,7 +4907,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B255" s="5">
         <v>10837</v>
@@ -5012,7 +4921,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B256" s="5">
         <v>11108</v>
@@ -5026,13 +4935,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B257" s="5">
         <v>11860</v>
       </c>
       <c r="C257" s="6">
-        <v>28183.6</v>
+        <v>28183.599999999999</v>
       </c>
       <c r="D257" s="6">
         <v>1527.2</v>
@@ -5040,7 +4949,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B258" s="5">
         <v>10478</v>
@@ -5054,7 +4963,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B259" s="5">
         <v>12072</v>
@@ -5068,13 +4977,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B260" s="5">
         <v>11911</v>
       </c>
       <c r="C260" s="6">
-        <v>28960.4</v>
+        <v>28960.400000000001</v>
       </c>
       <c r="D260" s="6">
         <v>1414.6</v>
@@ -5082,7 +4991,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B261" s="5">
         <v>11976</v>
@@ -5096,7 +5005,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B262" s="5">
         <v>12369</v>
@@ -5110,7 +5019,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B263" s="5">
         <v>11878</v>
@@ -5124,7 +5033,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B264" s="5">
         <v>12178</v>
@@ -5138,7 +5047,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B265" s="5">
         <v>12458</v>
@@ -5152,7 +5061,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B266" s="5">
         <v>11719</v>
@@ -5166,7 +5075,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B267" s="5">
         <v>12089</v>
@@ -5180,7 +5089,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B268" s="5">
         <v>11631</v>
@@ -5194,13 +5103,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B269" s="5">
         <v>12115</v>
       </c>
       <c r="C269" s="6">
-        <v>28476.4</v>
+        <v>28476.400000000001</v>
       </c>
       <c r="D269" s="5">
         <v>1435</v>
@@ -5208,7 +5117,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B270" s="5">
         <v>10512</v>
@@ -5222,7 +5131,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B271" s="5">
         <v>11910</v>
@@ -5236,7 +5145,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B272" s="5">
         <v>11915</v>
@@ -5250,7 +5159,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B273" s="5">
         <v>11871</v>
@@ -5264,13 +5173,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B274" s="5">
         <v>12454</v>
       </c>
       <c r="C274" s="6">
-        <v>26029.2</v>
+        <v>26029.200000000001</v>
       </c>
       <c r="D274" s="6">
         <v>1359.9</v>
@@ -5278,7 +5187,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B275" s="5">
         <v>12055</v>
@@ -5292,7 +5201,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B276" s="5">
         <v>12696</v>
@@ -5306,7 +5215,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B277" s="5">
         <v>12912</v>
@@ -5320,13 +5229,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B278" s="5">
         <v>12048</v>
       </c>
       <c r="C278" s="6">
-        <v>26732.4</v>
+        <v>26732.400000000001</v>
       </c>
       <c r="D278" s="6">
         <v>1294.5</v>
@@ -5334,7 +5243,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B279" s="5">
         <v>12561</v>
@@ -5348,13 +5257,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B280" s="5">
         <v>11862</v>
       </c>
       <c r="C280" s="6">
-        <v>25703.6</v>
+        <v>25703.599999999999</v>
       </c>
       <c r="D280" s="5">
         <v>1265</v>
@@ -5362,7 +5271,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B281" s="5">
         <v>12574</v>
@@ -5376,7 +5285,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B282" s="5">
         <v>11131</v>
@@ -5390,7 +5299,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B283" s="5">
         <v>12186</v>
@@ -5404,7 +5313,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B284" s="5">
         <v>12408</v>
@@ -5418,7 +5327,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B285" s="5">
         <v>12106</v>
@@ -5432,7 +5341,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B286" s="5">
         <v>12504</v>
@@ -5446,7 +5355,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B287" s="5">
         <v>11937</v>
@@ -5460,7 +5369,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B288" s="5">
         <v>12368</v>
@@ -5474,7 +5383,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B289" s="5">
         <v>12612</v>
@@ -5488,7 +5397,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B290" s="5">
         <v>12425</v>
@@ -5502,7 +5411,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B291" s="5">
         <v>12395</v>
@@ -5516,13 +5425,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B292" s="5">
         <v>12004</v>
       </c>
       <c r="C292" s="6">
-        <v>27994.4</v>
+        <v>27994.400000000001</v>
       </c>
       <c r="D292" s="6">
         <v>1455.2</v>
@@ -5530,13 +5439,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B293" s="5">
         <v>12296</v>
       </c>
       <c r="C293" s="6">
-        <v>26703.2</v>
+        <v>26703.200000000001</v>
       </c>
       <c r="D293" s="6">
         <v>1512.4</v>
@@ -5544,7 +5453,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B294" s="5">
         <v>10894</v>
@@ -5558,7 +5467,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B295" s="5">
         <v>11434</v>
@@ -5572,7 +5481,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B296" s="5">
         <v>11564</v>
@@ -5586,7 +5495,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B297" s="5">
         <v>11176</v>
@@ -5600,7 +5509,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B298" s="5">
         <v>11776</v>
@@ -5614,7 +5523,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B299" s="5">
         <v>11639</v>
@@ -5628,7 +5537,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B300" s="5">
         <v>12059</v>
@@ -5642,7 +5551,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B301" s="5">
         <v>12341</v>
@@ -5656,7 +5565,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B302" s="5">
         <v>11750</v>
@@ -5670,7 +5579,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B303" s="5">
         <v>12033</v>
@@ -5684,7 +5593,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B304" s="5">
         <v>11822</v>
@@ -5698,7 +5607,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B305" s="5">
         <v>12393</v>
@@ -5712,7 +5621,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B306" s="5">
         <v>10743</v>
@@ -5721,18 +5630,18 @@
         <v>23957.9</v>
       </c>
       <c r="D306" s="6">
-        <v>1143.9</v>
+        <v>1143.9000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B307" s="5">
         <v>12227</v>
       </c>
       <c r="C307" s="6">
-        <v>27047.6</v>
+        <v>27047.599999999999</v>
       </c>
       <c r="D307" s="6">
         <v>1198.2</v>
@@ -5740,7 +5649,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B308" s="5">
         <v>12451</v>
@@ -5749,12 +5658,12 @@
         <v>28284</v>
       </c>
       <c r="D308" s="6">
-        <v>1294.4</v>
+        <v>1294.4000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B309" s="5">
         <v>12088</v>
@@ -5768,7 +5677,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B310" s="5">
         <v>12078</v>
@@ -5782,7 +5691,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B311" s="5">
         <v>11904</v>
@@ -5796,7 +5705,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B312" s="5">
         <v>12030</v>
@@ -5810,7 +5719,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B313" s="5">
         <v>11915</v>
@@ -5824,7 +5733,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B314" s="5">
         <v>11702</v>
@@ -5838,13 +5747,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B315" s="5">
         <v>11909</v>
       </c>
       <c r="C315" s="6">
-        <v>26646.8</v>
+        <v>26646.799999999999</v>
       </c>
       <c r="D315" s="6">
         <v>1278.5</v>
@@ -5852,7 +5761,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B316" s="5">
         <v>11095</v>
@@ -5861,12 +5770,12 @@
         <v>25574</v>
       </c>
       <c r="D316" s="6">
-        <v>1256.4</v>
+        <v>1256.4000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B317" s="5">
         <v>11640</v>
@@ -5880,7 +5789,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B318" s="5">
         <v>10631</v>
@@ -5894,7 +5803,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B319" s="5">
         <v>11479</v>
@@ -5903,12 +5812,12 @@
         <v>24928.7</v>
       </c>
       <c r="D319" s="6">
-        <v>1144.1</v>
+        <v>1144.0999999999999</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B320" s="5">
         <v>11758</v>
@@ -5917,12 +5826,12 @@
         <v>26885.1</v>
       </c>
       <c r="D320" s="6">
-        <v>1212.4</v>
+        <v>1212.4000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B321" s="5">
         <v>11075</v>
@@ -5931,12 +5840,12 @@
         <v>25827.5</v>
       </c>
       <c r="D321" s="6">
-        <v>1198.9</v>
+        <v>1198.9000000000001</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B322" s="5">
         <v>11481</v>
@@ -5950,21 +5859,21 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B323" s="5">
         <v>11317</v>
       </c>
       <c r="C323" s="6">
-        <v>27697.2</v>
+        <v>27697.200000000001</v>
       </c>
       <c r="D323" s="6">
-        <v>1207.1</v>
+        <v>1207.0999999999999</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B324" s="5">
         <v>11169</v>
@@ -5973,12 +5882,12 @@
         <v>26756.7</v>
       </c>
       <c r="D324" s="6">
-        <v>1235.6</v>
+        <v>1235.5999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B325" s="5">
         <v>11334</v>
@@ -5987,12 +5896,12 @@
         <v>28400.1</v>
       </c>
       <c r="D325" s="6">
-        <v>1250.6</v>
+        <v>1250.5999999999999</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B326" s="5">
         <v>10730</v>
@@ -6006,7 +5915,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B327" s="5">
         <v>10861</v>
@@ -6015,12 +5924,12 @@
         <v>30382.9</v>
       </c>
       <c r="D327" s="6">
-        <v>1180.4</v>
+        <v>1180.4000000000001</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B328" s="5">
         <v>10332</v>
@@ -6034,7 +5943,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B329" s="5">
         <v>10605</v>
@@ -6043,18 +5952,18 @@
         <v>27979.1</v>
       </c>
       <c r="D329" s="6">
-        <v>1187.1</v>
+        <v>1187.0999999999999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B330" s="5">
         <v>8945</v>
       </c>
       <c r="C330" s="6">
-        <v>23303.6</v>
+        <v>23303.599999999999</v>
       </c>
       <c r="D330" s="6">
         <v>963.3</v>
@@ -6062,7 +5971,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B331" s="5">
         <v>10726</v>
@@ -6076,7 +5985,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B332" s="5">
         <v>10294</v>
@@ -6085,12 +5994,12 @@
         <v>26747</v>
       </c>
       <c r="D332" s="6">
-        <v>1114.1</v>
+        <v>1114.0999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B333" s="5">
         <v>10083</v>
@@ -6104,7 +6013,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B334" s="5">
         <v>10218</v>
@@ -6118,7 +6027,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B335" s="5">
         <v>9840</v>
@@ -6132,7 +6041,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B336" s="5">
         <v>9888</v>
@@ -6146,21 +6055,21 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B337" s="5">
         <v>10046</v>
       </c>
       <c r="C337" s="6">
-        <v>27257.2</v>
+        <v>27257.200000000001</v>
       </c>
       <c r="D337" s="6">
-        <v>1143.9</v>
+        <v>1143.9000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B338" s="5">
         <v>9635</v>
@@ -6174,7 +6083,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B339" s="5">
         <v>9836</v>
@@ -6183,12 +6092,12 @@
         <v>26302.3</v>
       </c>
       <c r="D339" s="6">
-        <v>1093.6</v>
+        <v>1093.5999999999999</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B340" s="5">
         <v>9633</v>
@@ -6202,7 +6111,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B341" s="5">
         <v>9971</v>
@@ -6216,13 +6125,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B342" s="5">
         <v>8687</v>
       </c>
       <c r="C342" s="6">
-        <v>23739.6</v>
+        <v>23739.599999999999</v>
       </c>
       <c r="D342" s="6">
         <v>958.4</v>
@@ -6230,13 +6139,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B343" s="5">
         <v>9592</v>
       </c>
       <c r="C343" s="6">
-        <v>25808.4</v>
+        <v>25808.400000000001</v>
       </c>
       <c r="D343" s="6">
         <v>1047.7</v>
@@ -6244,7 +6153,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B344" s="5">
         <v>9519</v>
@@ -6253,12 +6162,12 @@
         <v>26333.8</v>
       </c>
       <c r="D344" s="6">
-        <v>1045.1</v>
+        <v>1045.0999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B345" s="5">
         <v>8788</v>
@@ -6272,7 +6181,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B346" s="5">
         <v>9140</v>
@@ -6281,12 +6190,12 @@
         <v>26111.1</v>
       </c>
       <c r="D346" s="6">
-        <v>1047.9</v>
+        <v>1047.9000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B347" s="5">
         <v>8582</v>
@@ -6300,7 +6209,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B348" s="5">
         <v>8498</v>
@@ -6314,7 +6223,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B349" s="5">
         <v>8669</v>
@@ -6323,12 +6232,12 @@
         <v>25975.9</v>
       </c>
       <c r="D349" s="6">
-        <v>1037.4</v>
+        <v>1037.4000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B350" s="5">
         <v>8507</v>
@@ -6342,7 +6251,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B351" s="5">
         <v>8749</v>
@@ -6356,7 +6265,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B352" s="5">
         <v>8483</v>
@@ -6370,7 +6279,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B353" s="5">
         <v>8610</v>
@@ -6384,13 +6293,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B354" s="5">
         <v>7593</v>
       </c>
       <c r="C354" s="6">
-        <v>22954.8</v>
+        <v>22954.799999999999</v>
       </c>
       <c r="D354" s="6">
         <v>867.4</v>
@@ -6398,7 +6307,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B355" s="5">
         <v>8876</v>
@@ -6410,83 +6319,14 @@
         <v>946.4</v>
       </c>
     </row>
-    <row r="357" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>369</v>
-      </c>
-    </row>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>